--- a/WebTables/scoreboard.xlsx
+++ b/WebTables/scoreboard.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
-    <t>Tamim Iqbal</t>
+    <t>Tamim</t>
   </si>
   <si>
     <t>c Mutombodzi b Mumba</t>
@@ -38,7 +38,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>Najmul Hossain Shanto</t>
+    <t>Shanto</t>
   </si>
   <si>
     <t>run out (Brendan Taylor/Madhevere)</t>
@@ -50,7 +50,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>Mushfiqur Rahim (wk)</t>
+    <t>Rahim (wk)</t>
   </si>
   <si>
     <t>c Mutombodzi b Madhevere</t>
@@ -74,7 +74,7 @@
     <t>57</t>
   </si>
   <si>
-    <t>Mohammad Mithun</t>
+    <t>Mithun</t>
   </si>
   <si>
     <t>not out</t>
@@ -95,7 +95,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Mashrafe Mortaza (c)</t>
+    <t>Mortaza (c)</t>
   </si>
   <si>
     <t>c Raza b Tiripano</t>
@@ -116,7 +116,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>Shafiul Islam</t>
+    <t>Shafiul</t>
   </si>
 </sst>
 </file>
